--- a/components/importexport/rules/src/FamilyProperties.xlsx
+++ b/components/importexport/rules/src/FamilyProperties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\senat\programming\petrotool\components\importexport\rules\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6C8E8A-8F94-48FC-A266-11104A9B34DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1310BB2-5E65-4385-9CFB-B5DA533734AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3594,9 +3594,6 @@
     <t>neutron far</t>
   </si>
   <si>
-    <t>NKT</t>
-  </si>
-  <si>
     <t>SP</t>
   </si>
   <si>
@@ -3805,13 +3802,16 @@
   </si>
   <si>
     <t>PHI</t>
+  </si>
+  <si>
+    <t>FFTN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3881,8 +3881,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3919,6 +3926,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1C1C1C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -3947,7 +3960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3965,6 +3978,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3973,11 +3987,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF1C1C1C"/>
+      <color rgb="FF000000"/>
       <color rgb="FF2DBD19"/>
       <color rgb="FF2EC41A"/>
       <color rgb="FF0099FF"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF000000"/>
       <color rgb="FF010000"/>
     </mruColors>
   </colors>
@@ -4193,8 +4208,8 @@
   <dimension ref="A1:J986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H990" sqref="H990"/>
+      <pane ySplit="1" topLeftCell="A575" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H594" sqref="H594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6181,10 +6196,10 @@
     </row>
     <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D184" s="2">
         <v>1.95</v>
@@ -6199,10 +6214,10 @@
     </row>
     <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D185" s="2">
         <v>1.95</v>
@@ -6217,10 +6232,10 @@
     </row>
     <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D186" s="2">
         <v>0</v>
@@ -6235,10 +6250,10 @@
     </row>
     <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -6249,10 +6264,10 @@
     </row>
     <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -6263,10 +6278,10 @@
     </row>
     <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>1218</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>1219</v>
       </c>
       <c r="D189" s="2">
         <v>0</v>
@@ -6281,10 +6296,10 @@
     </row>
     <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D190" s="2">
         <v>0</v>
@@ -6299,10 +6314,10 @@
     </row>
     <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="10" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>1223</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>1224</v>
       </c>
       <c r="D191" s="2">
         <v>1</v>
@@ -6317,10 +6332,10 @@
     </row>
     <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C192" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -6331,10 +6346,10 @@
     </row>
     <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>1225</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>1226</v>
       </c>
       <c r="D193" s="2">
         <v>1</v>
@@ -6349,10 +6364,10 @@
     </row>
     <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D194" s="2">
         <v>0</v>
@@ -6367,10 +6382,10 @@
     </row>
     <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D195" s="2">
         <v>0</v>
@@ -6385,10 +6400,10 @@
     </row>
     <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C196" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D196" s="2">
         <v>0.1</v>
@@ -6397,7 +6412,7 @@
         <v>1000</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="J196" s="2" t="b">
         <v>1</v>
@@ -6405,10 +6420,10 @@
     </row>
     <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D197" s="2">
         <v>0.1</v>
@@ -6417,7 +6432,7 @@
         <v>1000</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="J197" s="2" t="b">
         <v>1</v>
@@ -6425,10 +6440,10 @@
     </row>
     <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="D198" s="2">
         <v>0.1</v>
@@ -6437,7 +6452,7 @@
         <v>1000</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="J198" s="2" t="b">
         <v>1</v>
@@ -6445,10 +6460,10 @@
     </row>
     <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="D199" s="2">
         <v>0.1</v>
@@ -6457,7 +6472,7 @@
         <v>1000</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="J199" s="2" t="b">
         <v>1</v>
@@ -6465,10 +6480,10 @@
     </row>
     <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D200" s="2">
         <v>0.1</v>
@@ -6477,7 +6492,7 @@
         <v>1000</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="J200" s="2" t="b">
         <v>1</v>
@@ -6485,10 +6500,10 @@
     </row>
     <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="D201" s="2">
         <v>0.1</v>
@@ -6497,7 +6512,7 @@
         <v>1000</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="J201" s="2" t="b">
         <v>1</v>
@@ -6505,10 +6520,10 @@
     </row>
     <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C202" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D202" s="2">
         <v>0.3</v>
@@ -6523,10 +6538,10 @@
     </row>
     <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D203" s="2">
         <v>0.3</v>
@@ -6541,10 +6556,10 @@
     </row>
     <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D204" s="2">
         <v>0.3</v>
@@ -6559,10 +6574,10 @@
     </row>
     <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="10" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C205" s="3" t="s">
         <v>1230</v>
-      </c>
-      <c r="C205" s="3" t="s">
-        <v>1231</v>
       </c>
       <c r="D205" s="2">
         <v>0.3</v>
@@ -6577,10 +6592,10 @@
     </row>
     <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D206" s="2">
         <v>0.3</v>
@@ -6595,10 +6610,10 @@
     </row>
     <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D207" s="2">
         <v>0</v>
@@ -6613,10 +6628,10 @@
     </row>
     <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D208" s="2">
         <v>0</v>
@@ -6631,10 +6646,10 @@
     </row>
     <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D209" s="2">
         <v>0</v>
@@ -6649,7 +6664,7 @@
     </row>
     <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="2">
@@ -6665,10 +6680,10 @@
     </row>
     <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D211" s="2">
         <v>1</v>
@@ -6683,10 +6698,10 @@
     </row>
     <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D212" s="2">
         <v>1</v>
@@ -6701,10 +6716,10 @@
     </row>
     <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D213" s="2">
         <v>0</v>
@@ -8466,7 +8481,7 @@
         <v>TRUE</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D384" s="1">
         <v>0.1</v>
@@ -8487,7 +8502,7 @@
         <v>TRUE</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="386" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8499,7 +8514,7 @@
         <v>TRUE</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="387" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9330,7 +9345,7 @@
     </row>
     <row r="464" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="B464" s="1" t="str">
         <f t="shared" si="9"/>
@@ -9627,7 +9642,7 @@
     </row>
     <row r="492" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="B492" s="1" t="str">
         <f t="shared" si="10"/>
@@ -9651,7 +9666,7 @@
     </row>
     <row r="493" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="B493" s="1" t="str">
         <f t="shared" si="10"/>
@@ -10681,17 +10696,18 @@
         <v>TRUE</v>
       </c>
       <c r="C596" t="s">
-        <v>1174</v>
+        <v>1244</v>
       </c>
       <c r="D596">
         <v>0</v>
       </c>
       <c r="E596">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F596" t="s">
         <v>1143</v>
       </c>
+      <c r="G596" s="15"/>
     </row>
     <row r="597" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
@@ -11020,7 +11036,7 @@
     </row>
     <row r="628" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="14" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B628" s="1"/>
     </row>
@@ -11624,7 +11640,7 @@
         <v>TRUE</v>
       </c>
       <c r="C689" s="1" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="690" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13088,7 +13104,7 @@
         <v>TRUE</v>
       </c>
       <c r="C832" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D832">
         <v>0</v>
@@ -13097,7 +13113,7 @@
         <v>200</v>
       </c>
       <c r="F832" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="833" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
